--- a/public/upload/migration UE.xlsx
+++ b/public/upload/migration UE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HELLO\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF80176-DB56-4A8B-9208-6224207282BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C66FD4-EBC8-4574-8F33-F63EFA33B260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{65255B7A-60BE-4BB0-892A-E1C0BDE7D5D0}"/>
   </bookViews>
@@ -84,19 +84,19 @@
     <t>AGE 111A</t>
   </si>
   <si>
+    <t>AGE 111B</t>
+  </si>
+  <si>
+    <t>PHYSICS</t>
+  </si>
+  <si>
+    <t>CHEMISTRY</t>
+  </si>
+  <si>
     <t>SEM1</t>
   </si>
   <si>
-    <t>IRT1</t>
-  </si>
-  <si>
-    <t>PHYSICS568</t>
-  </si>
-  <si>
-    <t>AGE 111C</t>
-  </si>
-  <si>
-    <t>CHEMISTRY  AND BIOPHYSICS</t>
+    <t>GL1</t>
   </si>
 </sst>
 </file>
@@ -290,10 +290,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -322,16 +328,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -662,7 +658,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -673,51 +669,51 @@
   <sheetData>
     <row r="1" spans="1:10" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="11">
-        <v>5</v>
-      </c>
-      <c r="G1" s="15">
+      <c r="F1" s="13">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3">
         <v>35</v>
       </c>
-      <c r="H1" s="15">
+      <c r="H1" s="3">
         <v>10</v>
       </c>
-      <c r="I1" s="16">
-        <v>5</v>
-      </c>
-      <c r="J1" s="16">
+      <c r="I1" s="4">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="F2" s="5">
         <v>3</v>
       </c>
       <c r="G2" s="1">
@@ -729,27 +725,27 @@
       <c r="I2" s="2">
         <v>5</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="5">
         <v>2</v>
       </c>
       <c r="G3" s="1">
@@ -761,25 +757,25 @@
       <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="10">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
         <v>4</v>
       </c>
       <c r="G4" s="1">
@@ -797,19 +793,19 @@
     </row>
     <row r="5" spans="1:10" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="D5" s="11"/>
+      <c r="E5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5">
         <v>5</v>
       </c>
       <c r="G5" s="1">
@@ -827,19 +823,19 @@
     </row>
     <row r="6" spans="1:10" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="5">
         <v>5</v>
       </c>
       <c r="G6" s="1">
@@ -857,19 +853,19 @@
     </row>
     <row r="7" spans="1:10" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="5">
         <v>5</v>
       </c>
       <c r="G7" s="1">
@@ -887,19 +883,19 @@
     </row>
     <row r="8" spans="1:10" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
         <v>3</v>
       </c>
       <c r="G8" s="1">
@@ -917,19 +913,19 @@
     </row>
     <row r="9" spans="1:10" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="18" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="5">
         <v>3</v>
       </c>
       <c r="G9" s="1">
@@ -947,21 +943,21 @@
     </row>
     <row r="10" spans="1:10" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="5">
         <v>1.5</v>
       </c>
       <c r="G10" s="1">
@@ -979,21 +975,21 @@
     </row>
     <row r="11" spans="1:10" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="5">
         <v>1.5</v>
       </c>
       <c r="G11" s="1">
